--- a/correlation/volkswagen/minutely/correlation/volkswagen_correlation_price_with_semantics.xlsx
+++ b/correlation/volkswagen/minutely/correlation/volkswagen_correlation_price_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.003158432722737023</v>
+        <v>0.004799878883990658</v>
       </c>
       <c r="D2">
-        <v>0.004074239874351249</v>
+        <v>0.004610586777216442</v>
       </c>
       <c r="E2">
-        <v>-0.001642975938909337</v>
+        <v>-0.0005042271062043323</v>
       </c>
       <c r="F2">
-        <v>-0.001150249116504871</v>
+        <v>-0.0001735662766487315</v>
       </c>
       <c r="G2">
-        <v>0.0005739440731036962</v>
+        <v>0.003997047176346371</v>
       </c>
       <c r="H2">
-        <v>-0.004079363505097455</v>
+        <v>-0.004126144888676171</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003158432722737023</v>
+        <v>0.004799878883990658</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3298416323082822</v>
+        <v>0.416730178740401</v>
       </c>
       <c r="E3">
-        <v>0.2440565191771329</v>
+        <v>0.2543128853605342</v>
       </c>
       <c r="F3">
-        <v>-0.0261463131739957</v>
+        <v>0.05216661257685939</v>
       </c>
       <c r="G3">
-        <v>0.2377942617958705</v>
+        <v>0.1222173981185293</v>
       </c>
       <c r="H3">
-        <v>-0.2090643191700204</v>
+        <v>-0.1185363394802294</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004074239874351249</v>
+        <v>0.004610586777216442</v>
       </c>
       <c r="C4">
-        <v>0.3298416323082822</v>
+        <v>0.416730178740401</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.1145640449582604</v>
+        <v>0.09097226794918621</v>
       </c>
       <c r="F4">
-        <v>-0.2043362056829775</v>
+        <v>0.07685052920464742</v>
       </c>
       <c r="G4">
-        <v>-0.3273846465967666</v>
+        <v>-0.07931227430661571</v>
       </c>
       <c r="H4">
-        <v>-0.3292084999221699</v>
+        <v>-0.1897308855847044</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.001642975938909337</v>
+        <v>-0.0005042271062043323</v>
       </c>
       <c r="C5">
-        <v>0.2440565191771329</v>
+        <v>0.2543128853605342</v>
       </c>
       <c r="D5">
-        <v>-0.1145640449582604</v>
+        <v>0.09097226794918621</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5684949072581196</v>
+        <v>0.4741694187309108</v>
       </c>
       <c r="G5">
-        <v>0.3760813064880352</v>
+        <v>-0.0001067442016296826</v>
       </c>
       <c r="H5">
-        <v>0.112605626633943</v>
+        <v>0.1101298740296164</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.001150249116504871</v>
+        <v>-0.0001735662766487315</v>
       </c>
       <c r="C6">
-        <v>-0.0261463131739957</v>
+        <v>0.05216661257685939</v>
       </c>
       <c r="D6">
-        <v>-0.2043362056829775</v>
+        <v>0.07685052920464742</v>
       </c>
       <c r="E6">
-        <v>0.5684949072581196</v>
+        <v>0.4741694187309108</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2897363065238175</v>
+        <v>0.01959823150162597</v>
       </c>
       <c r="H6">
-        <v>0.3174359988060598</v>
+        <v>0.2975735915463764</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0005739440731036962</v>
+        <v>0.003997047176346371</v>
       </c>
       <c r="C7">
-        <v>0.2377942617958705</v>
+        <v>0.1222173981185293</v>
       </c>
       <c r="D7">
-        <v>-0.3273846465967666</v>
+        <v>-0.07931227430661571</v>
       </c>
       <c r="E7">
-        <v>0.3760813064880352</v>
+        <v>-0.0001067442016296826</v>
       </c>
       <c r="F7">
-        <v>0.2897363065238175</v>
+        <v>0.01959823150162597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2340712623351142</v>
+        <v>0.1231798913089322</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.004079363505097455</v>
+        <v>-0.004126144888676171</v>
       </c>
       <c r="C8">
-        <v>-0.2090643191700204</v>
+        <v>-0.1185363394802294</v>
       </c>
       <c r="D8">
-        <v>-0.3292084999221699</v>
+        <v>-0.1897308855847044</v>
       </c>
       <c r="E8">
-        <v>0.112605626633943</v>
+        <v>0.1101298740296164</v>
       </c>
       <c r="F8">
-        <v>0.3174359988060598</v>
+        <v>0.2975735915463764</v>
       </c>
       <c r="G8">
-        <v>0.2340712623351142</v>
+        <v>0.1231798913089322</v>
       </c>
       <c r="H8">
         <v>1</v>
